--- a/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0C8CF-9716-42C2-9F73-171CE71C67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940B3A9-258B-414C-A86E-6C4BCBF33C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="650">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1979,6 +1979,12 @@
   </si>
   <si>
     <t>11/6,7/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -4768,7 +4774,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A778" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="K788" sqref="K788"/>
+      <selection pane="bottomLeft" activeCell="K790" sqref="K790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4935,7 +4941,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.75</v>
+        <v>24.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -22615,7 +22621,9 @@
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A788" s="40"/>
+      <c r="A788" s="47" t="s">
+        <v>648</v>
+      </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
       <c r="D788" s="39"/>
@@ -22631,8 +22639,12 @@
       <c r="K788" s="20"/>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A789" s="40"/>
-      <c r="B789" s="20"/>
+      <c r="A789" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B789" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C789" s="13"/>
       <c r="D789" s="39"/>
       <c r="E789" s="9"/>
@@ -22641,10 +22653,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H789" s="39"/>
+      <c r="H789" s="39">
+        <v>3</v>
+      </c>
       <c r="I789" s="9"/>
       <c r="J789" s="11"/>
-      <c r="K789" s="20"/>
+      <c r="K789" s="20" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40"/>

--- a/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940B3A9-258B-414C-A86E-6C4BCBF33C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="657">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1985,12 +1984,33 @@
   </si>
   <si>
     <t>12/27,28,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-5)</t>
+  </si>
+  <si>
+    <t>UT(0-1-12)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/13,22,23/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-57)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2856,7 +2876,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2919,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2983,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3043,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3109,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3172,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3270,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3329,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3394,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3437,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3512,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3698,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3764,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3822,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3888,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,7 +3944,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +4019,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4042,7 +4062,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4108,7 +4128,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4184,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4262,7 +4282,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,7 +4345,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4374,7 +4394,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4391,25 +4411,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K849" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K856" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4421,13 +4441,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4436,14 +4456,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4747,7 +4767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4757,7 +4777,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4765,34 +4785,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K849"/>
+  <dimension ref="A2:K856"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A778" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A772" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="K790" sqref="K790"/>
+      <selection pane="bottomLeft" activeCell="F784" sqref="F784"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4813,7 +4833,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4831,7 +4851,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4849,7 +4869,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4857,7 +4877,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4870,7 +4890,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4887,7 +4907,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4931,7 +4951,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.707999999999743</v>
+        <v>39.039999999999793</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4946,7 +4966,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4968,7 +4988,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5006,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -5006,7 +5026,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>46</v>
       </c>
@@ -5024,7 +5044,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34700</v>
       </c>
@@ -5044,7 +5064,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34731</v>
       </c>
@@ -5064,7 +5084,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34759</v>
       </c>
@@ -5084,7 +5104,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34790</v>
       </c>
@@ -5104,7 +5124,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34820</v>
       </c>
@@ -5130,7 +5150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34851</v>
       </c>
@@ -5150,7 +5170,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34881</v>
       </c>
@@ -5176,7 +5196,7 @@
         <v>34765</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34912</v>
       </c>
@@ -5202,7 +5222,7 @@
         <v>34738</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -5224,7 +5244,7 @@
         <v>34888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34943</v>
       </c>
@@ -5244,7 +5264,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34973</v>
       </c>
@@ -5264,7 +5284,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35004</v>
       </c>
@@ -5290,7 +5310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35034</v>
       </c>
@@ -5314,7 +5334,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>47</v>
       </c>
@@ -5336,7 +5356,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35065</v>
       </c>
@@ -5356,7 +5376,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35096</v>
       </c>
@@ -5382,7 +5402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35125</v>
       </c>
@@ -5408,7 +5428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35156</v>
       </c>
@@ -5428,7 +5448,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35186</v>
       </c>
@@ -5448,7 +5468,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35217</v>
       </c>
@@ -5468,7 +5488,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35247</v>
       </c>
@@ -5488,7 +5508,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35278</v>
       </c>
@@ -5508,7 +5528,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35309</v>
       </c>
@@ -5534,7 +5554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>61</v>
@@ -5552,7 +5572,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
@@ -5574,7 +5594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35339</v>
       </c>
@@ -5594,7 +5614,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35370</v>
       </c>
@@ -5620,7 +5640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35400</v>
       </c>
@@ -5644,7 +5664,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>48</v>
       </c>
@@ -5666,7 +5686,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35431</v>
       </c>
@@ -5690,7 +5710,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35462</v>
       </c>
@@ -5712,7 +5732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35490</v>
       </c>
@@ -5732,7 +5752,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35521</v>
       </c>
@@ -5752,7 +5772,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35551</v>
       </c>
@@ -5772,7 +5792,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35582</v>
       </c>
@@ -5792,7 +5812,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35612</v>
       </c>
@@ -5812,7 +5832,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35643</v>
       </c>
@@ -5832,7 +5852,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35674</v>
       </c>
@@ -5852,7 +5872,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35704</v>
       </c>
@@ -5878,7 +5898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35735</v>
       </c>
@@ -5898,7 +5918,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35765</v>
       </c>
@@ -5924,7 +5944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>49</v>
       </c>
@@ -5946,7 +5966,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35796</v>
       </c>
@@ -5972,7 +5992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35827</v>
       </c>
@@ -5992,7 +6012,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35855</v>
       </c>
@@ -6012,7 +6032,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35886</v>
       </c>
@@ -6032,7 +6052,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35916</v>
       </c>
@@ -6056,7 +6076,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35947</v>
       </c>
@@ -6076,7 +6096,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35977</v>
       </c>
@@ -6102,7 +6122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36008</v>
       </c>
@@ -6128,7 +6148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36039</v>
       </c>
@@ -6154,7 +6174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36069</v>
       </c>
@@ -6180,7 +6200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36100</v>
       </c>
@@ -6200,7 +6220,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36130</v>
       </c>
@@ -6226,7 +6246,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>57</v>
@@ -6248,7 +6268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>50</v>
       </c>
@@ -6270,7 +6290,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36161</v>
       </c>
@@ -6294,7 +6314,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36192</v>
       </c>
@@ -6320,7 +6340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -6342,7 +6362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36220</v>
       </c>
@@ -6368,7 +6388,7 @@
         <v>36436</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>51</v>
@@ -6390,7 +6410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36251</v>
       </c>
@@ -6416,7 +6436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36281</v>
       </c>
@@ -6440,7 +6460,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36312</v>
       </c>
@@ -6464,7 +6484,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36342</v>
       </c>
@@ -6488,7 +6508,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36373</v>
       </c>
@@ -6514,7 +6534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36404</v>
       </c>
@@ -6534,7 +6554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>57</v>
@@ -6558,7 +6578,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>51</v>
@@ -6580,7 +6600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>89</v>
@@ -6600,7 +6620,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36434</v>
       </c>
@@ -6626,7 +6646,7 @@
         <v>36382</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36465</v>
       </c>
@@ -6652,7 +6672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>51</v>
@@ -6674,7 +6694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>57</v>
@@ -6696,7 +6716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>91</v>
@@ -6716,7 +6736,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36495</v>
       </c>
@@ -6742,7 +6762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>90</v>
@@ -6764,7 +6784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>80</v>
       </c>
@@ -6786,7 +6806,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36526</v>
       </c>
@@ -6812,7 +6832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>106</v>
@@ -6832,7 +6852,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36557</v>
       </c>
@@ -6858,7 +6878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36586</v>
       </c>
@@ -6884,7 +6904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>57</v>
@@ -6906,7 +6926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>73</v>
@@ -6926,7 +6946,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36617</v>
       </c>
@@ -6946,7 +6966,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>36647</v>
       </c>
@@ -6972,7 +6992,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>53</v>
@@ -6994,7 +7014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>53</v>
@@ -7016,7 +7036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>107</v>
@@ -7036,7 +7056,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>36678</v>
       </c>
@@ -7060,7 +7080,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36708</v>
       </c>
@@ -7084,7 +7104,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36739</v>
       </c>
@@ -7108,7 +7128,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36770</v>
       </c>
@@ -7132,7 +7152,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36800</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36831</v>
       </c>
@@ -7184,7 +7204,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>117</v>
@@ -7204,7 +7224,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36861</v>
       </c>
@@ -7228,7 +7248,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
         <v>102</v>
       </c>
@@ -7250,7 +7270,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36892</v>
       </c>
@@ -7276,7 +7296,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>51</v>
@@ -7298,7 +7318,7 @@
         <v>37135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>51</v>
@@ -7320,7 +7340,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>51</v>
@@ -7342,7 +7362,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>121</v>
@@ -7362,7 +7382,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>36923</v>
       </c>
@@ -7388,7 +7408,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>122</v>
@@ -7408,7 +7428,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>36951</v>
       </c>
@@ -7432,7 +7452,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36982</v>
       </c>
@@ -7458,7 +7478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>64</v>
@@ -7480,7 +7500,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37012</v>
       </c>
@@ -7506,7 +7526,7 @@
         <v>36927</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>130</v>
@@ -7528,7 +7548,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37043</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>36987</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>51</v>
@@ -7576,7 +7596,7 @@
         <v>37201</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -7598,7 +7618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>90</v>
@@ -7620,7 +7640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>51</v>
@@ -7642,7 +7662,7 @@
         <v>37018</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>131</v>
@@ -7662,7 +7682,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37073</v>
       </c>
@@ -7688,7 +7708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>123</v>
@@ -7708,7 +7728,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37104</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>37172</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>132</v>
@@ -7756,7 +7776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37135</v>
       </c>
@@ -7782,7 +7802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>57</v>
@@ -7804,7 +7824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>133</v>
@@ -7824,7 +7844,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37165</v>
       </c>
@@ -7850,7 +7870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>57</v>
@@ -7872,7 +7892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>134</v>
@@ -7892,7 +7912,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37196</v>
       </c>
@@ -7918,7 +7938,7 @@
         <v>37083</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>65</v>
@@ -7940,7 +7960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>144</v>
@@ -7962,7 +7982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>37226</v>
       </c>
@@ -7986,7 +8006,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
         <v>103</v>
       </c>
@@ -8008,7 +8028,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37257</v>
       </c>
@@ -8034,7 +8054,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>148</v>
@@ -8054,7 +8074,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37288</v>
       </c>
@@ -8080,7 +8100,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>149</v>
@@ -8102,7 +8122,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37316</v>
       </c>
@@ -8126,7 +8146,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37347</v>
       </c>
@@ -8152,7 +8172,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>151</v>
@@ -8172,7 +8192,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37377</v>
       </c>
@@ -8198,7 +8218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>51</v>
@@ -8218,7 +8238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>152</v>
@@ -8238,7 +8258,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37408</v>
       </c>
@@ -8264,7 +8284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>51</v>
@@ -8286,7 +8306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37438</v>
       </c>
@@ -8312,7 +8332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>90</v>
@@ -8334,7 +8354,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>161</v>
@@ -8354,7 +8374,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37469</v>
       </c>
@@ -8380,7 +8400,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>65</v>
@@ -8402,7 +8422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>107</v>
@@ -8422,7 +8442,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37500</v>
       </c>
@@ -8448,7 +8468,7 @@
         <v>37569</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37530</v>
       </c>
@@ -8474,7 +8494,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>88</v>
@@ -8494,7 +8514,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>37561</v>
       </c>
@@ -8520,7 +8540,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>57</v>
@@ -8542,7 +8562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>162</v>
@@ -8562,7 +8582,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37591</v>
       </c>
@@ -8588,7 +8608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>163</v>
@@ -8608,7 +8628,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
         <v>104</v>
       </c>
@@ -8630,7 +8650,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>37622</v>
       </c>
@@ -8656,7 +8676,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>174</v>
@@ -8676,7 +8696,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37653</v>
       </c>
@@ -8702,7 +8722,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>37681</v>
       </c>
@@ -8726,7 +8746,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37712</v>
       </c>
@@ -8750,7 +8770,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37742</v>
       </c>
@@ -8776,7 +8796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>178</v>
@@ -8798,7 +8818,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37773</v>
       </c>
@@ -8824,7 +8844,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37803</v>
       </c>
@@ -8848,7 +8868,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37834</v>
       </c>
@@ -8868,7 +8888,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37865</v>
       </c>
@@ -8894,7 +8914,7 @@
         <v>37873</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37895</v>
       </c>
@@ -8914,7 +8934,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37926</v>
       </c>
@@ -8940,7 +8960,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37956</v>
       </c>
@@ -8966,7 +8986,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>53</v>
@@ -8988,7 +9008,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>53</v>
@@ -9010,7 +9030,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>66</v>
@@ -9032,7 +9052,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>171</v>
       </c>
@@ -9054,7 +9074,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37987</v>
       </c>
@@ -9078,7 +9098,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38018</v>
       </c>
@@ -9102,7 +9122,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38047</v>
       </c>
@@ -9128,7 +9148,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38078</v>
       </c>
@@ -9152,7 +9172,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38108</v>
       </c>
@@ -9178,7 +9198,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>162</v>
@@ -9198,7 +9218,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>38139</v>
       </c>
@@ -9224,7 +9244,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -9242,7 +9262,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -9260,7 +9280,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>51</v>
@@ -9282,7 +9302,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>73</v>
@@ -9302,7 +9322,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38169</v>
       </c>
@@ -9328,7 +9348,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>51</v>
@@ -9350,7 +9370,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>51</v>
@@ -9372,7 +9392,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38200</v>
       </c>
@@ -9394,7 +9414,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="15" t="s">
         <v>53</v>
@@ -9416,7 +9436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>85</v>
@@ -9438,7 +9458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38231</v>
       </c>
@@ -9464,7 +9484,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>203</v>
@@ -9484,7 +9504,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38261</v>
       </c>
@@ -9514,7 +9534,7 @@
         <v>38209</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -9536,7 +9556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>52</v>
@@ -9558,7 +9578,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>204</v>
@@ -9578,7 +9598,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38292</v>
       </c>
@@ -9604,7 +9624,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>65</v>
@@ -9626,7 +9646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>205</v>
@@ -9646,7 +9666,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38322</v>
       </c>
@@ -9672,7 +9692,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>53</v>
@@ -9694,7 +9714,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>51</v>
@@ -9716,7 +9736,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>206</v>
@@ -9738,7 +9758,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="47" t="s">
         <v>172</v>
       </c>
@@ -9760,7 +9780,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38353</v>
       </c>
@@ -9782,7 +9802,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>51</v>
@@ -9806,7 +9826,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -9828,7 +9848,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>176</v>
@@ -9848,7 +9868,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>38384</v>
       </c>
@@ -9872,7 +9892,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>53</v>
@@ -9894,7 +9914,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>214</v>
@@ -9914,7 +9934,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38412</v>
       </c>
@@ -9938,7 +9958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>162</v>
@@ -9958,7 +9978,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38443</v>
       </c>
@@ -9984,7 +10004,7 @@
         <v>38660</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -10006,7 +10026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>220</v>
@@ -10026,7 +10046,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>38473</v>
       </c>
@@ -10052,7 +10072,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>222</v>
@@ -10070,7 +10090,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38504</v>
       </c>
@@ -10096,7 +10116,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>65</v>
@@ -10118,7 +10138,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>230</v>
@@ -10140,7 +10160,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>223</v>
@@ -10160,7 +10180,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>38534</v>
       </c>
@@ -10186,7 +10206,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>224</v>
@@ -10208,7 +10228,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>225</v>
@@ -10230,7 +10250,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>226</v>
@@ -10252,7 +10272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>227</v>
@@ -10274,7 +10294,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>38565</v>
       </c>
@@ -10302,7 +10322,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>226</v>
@@ -10324,7 +10344,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>229</v>
@@ -10346,7 +10366,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>229</v>
@@ -10368,7 +10388,7 @@
         <v>38542</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>245</v>
@@ -10388,7 +10408,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38596</v>
       </c>
@@ -10416,7 +10436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>228</v>
@@ -10438,7 +10458,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>226</v>
@@ -10460,7 +10480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>229</v>
@@ -10482,7 +10502,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>228</v>
@@ -10502,7 +10522,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>226</v>
@@ -10524,7 +10544,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>246</v>
@@ -10544,7 +10564,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>38626</v>
       </c>
@@ -10572,7 +10592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>226</v>
@@ -10594,7 +10614,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>228</v>
@@ -10618,7 +10638,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>247</v>
@@ -10638,7 +10658,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>38657</v>
       </c>
@@ -10664,7 +10684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>248</v>
@@ -10686,7 +10706,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>38687</v>
       </c>
@@ -10706,7 +10726,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="47" t="s">
         <v>173</v>
       </c>
@@ -10728,7 +10748,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>38718</v>
       </c>
@@ -10754,7 +10774,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>51</v>
@@ -10778,7 +10798,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>191</v>
@@ -10798,7 +10818,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>191</v>
@@ -10818,7 +10838,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>271</v>
@@ -10840,7 +10860,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>38749</v>
       </c>
@@ -10868,7 +10888,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>51</v>
@@ -10890,7 +10910,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>272</v>
@@ -10912,7 +10932,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>273</v>
@@ -10932,7 +10952,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>38777</v>
       </c>
@@ -10956,7 +10976,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38808</v>
       </c>
@@ -10982,7 +11002,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>275</v>
@@ -11002,7 +11022,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>38838</v>
       </c>
@@ -11026,7 +11046,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>38869</v>
       </c>
@@ -11052,7 +11072,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>277</v>
@@ -11074,7 +11094,7 @@
         <v>38814</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>38899</v>
       </c>
@@ -11098,7 +11118,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>38930</v>
       </c>
@@ -11124,7 +11144,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>51</v>
@@ -11146,7 +11166,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>38961</v>
       </c>
@@ -11172,7 +11192,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>38991</v>
       </c>
@@ -11196,7 +11216,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>39022</v>
       </c>
@@ -11222,7 +11242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>290</v>
@@ -11242,7 +11262,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39052</v>
       </c>
@@ -11266,7 +11286,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>229</v>
@@ -11290,7 +11310,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>229</v>
@@ -11310,7 +11330,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>51</v>
@@ -11332,7 +11352,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>273</v>
@@ -11352,7 +11372,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="47" t="s">
         <v>260</v>
       </c>
@@ -11374,7 +11394,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39083</v>
       </c>
@@ -11398,7 +11418,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>226</v>
@@ -11422,7 +11442,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>293</v>
@@ -11442,7 +11462,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39114</v>
       </c>
@@ -11468,7 +11488,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>228</v>
@@ -11492,7 +11512,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>206</v>
@@ -11512,7 +11532,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39142</v>
       </c>
@@ -11538,7 +11558,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>57</v>
@@ -11560,7 +11580,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>51</v>
@@ -11582,7 +11602,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>65</v>
@@ -11604,7 +11624,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>203</v>
@@ -11624,7 +11644,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39173</v>
       </c>
@@ -11654,7 +11674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>51</v>
@@ -11676,7 +11696,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>191</v>
@@ -11696,7 +11716,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>107</v>
@@ -11716,7 +11736,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39203</v>
       </c>
@@ -11740,7 +11760,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39234</v>
       </c>
@@ -11764,7 +11784,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>301</v>
@@ -11788,7 +11808,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>276</v>
@@ -11808,7 +11828,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39264</v>
       </c>
@@ -11834,7 +11854,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>74</v>
@@ -11858,7 +11878,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>74</v>
@@ -11876,7 +11896,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>53</v>
@@ -11898,7 +11918,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>302</v>
@@ -11918,7 +11938,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>39295</v>
       </c>
@@ -11944,7 +11964,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>221</v>
@@ -11966,7 +11986,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>303</v>
@@ -11986,7 +12006,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>39326</v>
       </c>
@@ -12012,7 +12032,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>304</v>
@@ -12034,7 +12054,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>39356</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>51</v>
@@ -12082,7 +12102,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>316</v>
@@ -12102,7 +12122,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>51</v>
@@ -12124,7 +12144,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>51</v>
@@ -12146,7 +12166,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>51</v>
@@ -12168,7 +12188,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>39387</v>
       </c>
@@ -12194,7 +12214,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>226</v>
@@ -12214,7 +12234,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>73</v>
@@ -12234,7 +12254,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>39417</v>
       </c>
@@ -12260,7 +12280,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>317</v>
@@ -12280,7 +12300,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="47" t="s">
         <v>261</v>
       </c>
@@ -12302,7 +12322,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39448</v>
       </c>
@@ -12328,7 +12348,7 @@
         <v>39479</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>74</v>
@@ -12350,7 +12370,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>229</v>
@@ -12372,7 +12392,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>51</v>
@@ -12392,7 +12412,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>162</v>
@@ -12412,7 +12432,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>39479</v>
       </c>
@@ -12438,7 +12458,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>229</v>
@@ -12460,7 +12480,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>53</v>
@@ -12482,7 +12502,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>191</v>
@@ -12502,7 +12522,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>108</v>
@@ -12522,7 +12542,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>39508</v>
       </c>
@@ -12550,7 +12570,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>324</v>
@@ -12570,7 +12590,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>191</v>
@@ -12590,7 +12610,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>229</v>
@@ -12612,7 +12632,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>334</v>
@@ -12632,7 +12652,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>39539</v>
       </c>
@@ -12658,7 +12678,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>229</v>
@@ -12680,7 +12700,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>335</v>
@@ -12700,7 +12720,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>39569</v>
       </c>
@@ -12726,7 +12746,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>51</v>
@@ -12748,7 +12768,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>73</v>
@@ -12768,7 +12788,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39600</v>
       </c>
@@ -12794,7 +12814,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>336</v>
@@ -12814,7 +12834,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>39630</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>226</v>
@@ -12862,7 +12882,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>337</v>
@@ -12882,7 +12902,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>39661</v>
       </c>
@@ -12908,7 +12928,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>338</v>
@@ -12930,7 +12950,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>191</v>
@@ -12950,7 +12970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>339</v>
@@ -12970,7 +12990,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>39692</v>
       </c>
@@ -12998,7 +13018,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>324</v>
@@ -13018,7 +13038,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>340</v>
@@ -13038,7 +13058,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>39722</v>
       </c>
@@ -13064,7 +13084,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>51</v>
@@ -13086,7 +13106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>341</v>
@@ -13106,7 +13126,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>39753</v>
       </c>
@@ -13132,7 +13152,7 @@
         <v>39518</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>350</v>
@@ -13152,7 +13172,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>39783</v>
       </c>
@@ -13178,7 +13198,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>351</v>
@@ -13198,7 +13218,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="47" t="s">
         <v>270</v>
       </c>
@@ -13220,7 +13240,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>39814</v>
       </c>
@@ -13244,7 +13264,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>51</v>
@@ -13264,7 +13284,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>353</v>
@@ -13282,7 +13302,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>303</v>
@@ -13302,7 +13322,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>39845</v>
       </c>
@@ -13328,7 +13348,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>229</v>
@@ -13348,7 +13368,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>354</v>
@@ -13368,7 +13388,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>39873</v>
       </c>
@@ -13392,7 +13412,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>229</v>
@@ -13412,7 +13432,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>355</v>
@@ -13432,7 +13452,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>39904</v>
       </c>
@@ -13458,7 +13478,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>53</v>
@@ -13478,7 +13498,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>51</v>
@@ -13498,7 +13518,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>65</v>
@@ -13518,7 +13538,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>356</v>
@@ -13538,7 +13558,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>39934</v>
       </c>
@@ -13564,7 +13584,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>57</v>
@@ -13586,7 +13606,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>357</v>
@@ -13606,7 +13626,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>39965</v>
       </c>
@@ -13630,7 +13650,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>39995</v>
       </c>
@@ -13656,7 +13676,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>359</v>
@@ -13676,7 +13696,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>40026</v>
       </c>
@@ -13702,7 +13722,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>52</v>
@@ -13724,7 +13744,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>360</v>
@@ -13744,7 +13764,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>40057</v>
       </c>
@@ -13772,7 +13792,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>51</v>
@@ -13794,7 +13814,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>361</v>
@@ -13814,7 +13834,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>40087</v>
       </c>
@@ -13840,7 +13860,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>355</v>
@@ -13860,7 +13880,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40118</v>
       </c>
@@ -13884,7 +13904,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40148</v>
       </c>
@@ -13910,7 +13930,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>57</v>
@@ -13932,7 +13952,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>226</v>
@@ -13954,7 +13974,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>363</v>
@@ -13974,7 +13994,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
         <v>269</v>
       </c>
@@ -13996,7 +14016,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>40179</v>
       </c>
@@ -14024,7 +14044,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>226</v>
@@ -14050,7 +14070,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>372</v>
@@ -14072,7 +14092,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>40210</v>
       </c>
@@ -14100,7 +14120,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>353</v>
@@ -14122,7 +14142,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>57</v>
@@ -14144,7 +14164,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>373</v>
@@ -14164,7 +14184,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>40238</v>
       </c>
@@ -14190,7 +14210,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>57</v>
@@ -14212,7 +14232,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>51</v>
@@ -14234,7 +14254,7 @@
         <v>40485</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>374</v>
@@ -14256,7 +14276,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>40269</v>
       </c>
@@ -14282,7 +14302,7 @@
         <v>40516</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>375</v>
@@ -14302,7 +14322,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>40299</v>
       </c>
@@ -14328,7 +14348,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>376</v>
@@ -14348,7 +14368,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>40330</v>
       </c>
@@ -14374,7 +14394,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>377</v>
@@ -14394,7 +14414,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>40360</v>
       </c>
@@ -14422,7 +14442,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>378</v>
@@ -14442,7 +14462,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>40391</v>
       </c>
@@ -14470,7 +14490,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>40422</v>
       </c>
@@ -14498,7 +14518,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>51</v>
@@ -14520,7 +14540,7 @@
         <v>40187</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>51</v>
@@ -14542,7 +14562,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>51</v>
@@ -14564,7 +14584,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>51</v>
@@ -14586,7 +14606,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>40452</v>
       </c>
@@ -14612,7 +14632,7 @@
       </c>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>389</v>
@@ -14634,7 +14654,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>40483</v>
       </c>
@@ -14660,7 +14680,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>53</v>
@@ -14682,7 +14702,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>390</v>
@@ -14704,7 +14724,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>40513</v>
       </c>
@@ -14728,7 +14748,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>391</v>
@@ -14748,7 +14768,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
         <v>268</v>
       </c>
@@ -14770,7 +14790,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>40544</v>
       </c>
@@ -14794,7 +14814,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>40575</v>
       </c>
@@ -14820,7 +14840,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>400</v>
@@ -14840,7 +14860,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>40603</v>
       </c>
@@ -14866,7 +14886,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>191</v>
@@ -14886,7 +14906,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>51</v>
@@ -14906,7 +14926,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>404</v>
@@ -14926,7 +14946,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>40634</v>
       </c>
@@ -14950,7 +14970,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>229</v>
@@ -14972,7 +14992,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>57</v>
@@ -14994,7 +15014,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>406</v>
@@ -15014,7 +15034,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>40664</v>
       </c>
@@ -15038,7 +15058,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>57</v>
@@ -15060,7 +15080,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>51</v>
@@ -15082,7 +15102,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>53</v>
@@ -15104,7 +15124,7 @@
         <v>40791</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>51</v>
@@ -15126,7 +15146,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>57</v>
@@ -15148,7 +15168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>53</v>
@@ -15170,7 +15190,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>407</v>
@@ -15192,7 +15212,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>40695</v>
       </c>
@@ -15218,7 +15238,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>191</v>
@@ -15238,7 +15258,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>408</v>
@@ -15260,7 +15280,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>40725</v>
       </c>
@@ -15290,7 +15310,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>409</v>
@@ -15312,7 +15332,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>40756</v>
       </c>
@@ -15338,7 +15358,7 @@
         <v>40641</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>57</v>
@@ -15360,7 +15380,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>64</v>
@@ -15382,7 +15402,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>423</v>
@@ -15402,7 +15422,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>40787</v>
       </c>
@@ -15428,7 +15448,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>228</v>
@@ -15452,7 +15472,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>424</v>
@@ -15472,7 +15492,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>40817</v>
       </c>
@@ -15498,7 +15518,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>221</v>
@@ -15520,7 +15540,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>51</v>
@@ -15540,7 +15560,7 @@
       </c>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>425</v>
@@ -15560,7 +15580,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>40848</v>
       </c>
@@ -15586,7 +15606,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>51</v>
@@ -15610,7 +15630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>426</v>
@@ -15630,7 +15650,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>40878</v>
       </c>
@@ -15658,7 +15678,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>427</v>
@@ -15678,7 +15698,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="47" t="s">
         <v>267</v>
       </c>
@@ -15700,7 +15720,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>40909</v>
       </c>
@@ -15730,7 +15750,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>53</v>
@@ -15752,7 +15772,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>64</v>
@@ -15774,7 +15794,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>51</v>
@@ -15796,7 +15816,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>439</v>
@@ -15816,7 +15836,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>40940</v>
       </c>
@@ -15840,7 +15860,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>51</v>
@@ -15862,7 +15882,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>51</v>
@@ -15884,7 +15904,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>191</v>
@@ -15904,7 +15924,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>57</v>
@@ -15926,7 +15946,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>444</v>
@@ -15946,7 +15966,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>40969</v>
       </c>
@@ -15972,7 +15992,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>57</v>
@@ -15994,7 +16014,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>53</v>
@@ -16016,7 +16036,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>51</v>
@@ -16038,7 +16058,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>445</v>
@@ -16058,7 +16078,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>41000</v>
       </c>
@@ -16088,7 +16108,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>90</v>
@@ -16110,7 +16130,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>53</v>
@@ -16132,7 +16152,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>57</v>
@@ -16154,7 +16174,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>446</v>
@@ -16174,7 +16194,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>41030</v>
       </c>
@@ -16198,7 +16218,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>51</v>
@@ -16220,7 +16240,7 @@
         <v>47239</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>121</v>
@@ -16240,7 +16260,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>41061</v>
       </c>
@@ -16266,7 +16286,7 @@
         <v>41219</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>51</v>
@@ -16288,7 +16308,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>461</v>
@@ -16310,7 +16330,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>41091</v>
       </c>
@@ -16336,7 +16356,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>57</v>
@@ -16358,7 +16378,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>51</v>
@@ -16380,7 +16400,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>57</v>
@@ -16402,7 +16422,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>462</v>
@@ -16422,7 +16442,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>41122</v>
       </c>
@@ -16448,7 +16468,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>57</v>
@@ -16470,7 +16490,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>338</v>
@@ -16492,7 +16512,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>463</v>
@@ -16512,7 +16532,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>41153</v>
       </c>
@@ -16538,7 +16558,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>51</v>
@@ -16560,7 +16580,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>229</v>
@@ -16584,7 +16604,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>464</v>
@@ -16604,7 +16624,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>41183</v>
       </c>
@@ -16632,7 +16652,7 @@
         <v>40978</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>57</v>
@@ -16652,7 +16672,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>57</v>
@@ -16674,7 +16694,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>465</v>
@@ -16698,7 +16718,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>41214</v>
       </c>
@@ -16720,7 +16740,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>51</v>
@@ -16742,7 +16762,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>479</v>
@@ -16760,7 +16780,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>41244</v>
       </c>
@@ -16786,7 +16806,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>51</v>
@@ -16806,7 +16826,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>481</v>
@@ -16824,7 +16844,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="47" t="s">
         <v>266</v>
       </c>
@@ -16846,7 +16866,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>41275</v>
       </c>
@@ -16870,7 +16890,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>228</v>
@@ -16894,7 +16914,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>484</v>
@@ -16916,7 +16936,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>41306</v>
       </c>
@@ -16942,7 +16962,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>485</v>
@@ -16962,7 +16982,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>41334</v>
       </c>
@@ -16988,7 +17008,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>486</v>
@@ -17008,7 +17028,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>41365</v>
       </c>
@@ -17034,7 +17054,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>191</v>
@@ -17054,7 +17074,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>229</v>
@@ -17080,7 +17100,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>229</v>
@@ -17104,7 +17124,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>51</v>
@@ -17126,7 +17146,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>487</v>
@@ -17144,7 +17164,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>41395</v>
       </c>
@@ -17170,7 +17190,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>51</v>
@@ -17192,7 +17212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>51</v>
@@ -17214,7 +17234,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>496</v>
@@ -17234,7 +17254,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>41426</v>
       </c>
@@ -17264,7 +17284,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>51</v>
@@ -17286,7 +17306,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>497</v>
@@ -17306,7 +17326,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>41456</v>
       </c>
@@ -17332,7 +17352,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>51</v>
@@ -17352,7 +17372,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>51</v>
@@ -17374,7 +17394,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>498</v>
@@ -17394,7 +17414,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>41487</v>
       </c>
@@ -17422,7 +17442,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -17444,7 +17464,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>51</v>
@@ -17466,7 +17486,7 @@
         <v>41314</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -17484,7 +17504,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>499</v>
@@ -17504,7 +17524,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>41518</v>
       </c>
@@ -17532,7 +17552,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>501</v>
@@ -17552,7 +17572,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>41548</v>
       </c>
@@ -17576,7 +17596,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>41579</v>
       </c>
@@ -17604,7 +17624,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>51</v>
@@ -17628,7 +17648,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>340</v>
@@ -17648,7 +17668,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>41609</v>
       </c>
@@ -17674,7 +17694,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="47" t="s">
         <v>265</v>
       </c>
@@ -17696,7 +17716,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>41640</v>
       </c>
@@ -17720,7 +17740,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>57</v>
@@ -17742,7 +17762,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>53</v>
@@ -17764,7 +17784,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>51</v>
@@ -17786,7 +17806,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -17806,7 +17826,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -17826,7 +17846,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>41671</v>
       </c>
@@ -17850,7 +17870,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>41699</v>
       </c>
@@ -17874,7 +17894,7 @@
         <v>41705</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>41730</v>
       </c>
@@ -17902,7 +17922,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>41760</v>
       </c>
@@ -17930,7 +17950,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>41791</v>
       </c>
@@ -17954,7 +17974,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>41821</v>
       </c>
@@ -17978,7 +17998,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>41852</v>
       </c>
@@ -18002,7 +18022,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>41883</v>
       </c>
@@ -18028,7 +18048,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>519</v>
@@ -18050,7 +18070,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>41913</v>
       </c>
@@ -18076,7 +18096,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>41944</v>
       </c>
@@ -18100,7 +18120,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>41974</v>
       </c>
@@ -18126,7 +18146,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>228</v>
@@ -18150,7 +18170,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>485</v>
@@ -18170,7 +18190,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="47" t="s">
         <v>264</v>
       </c>
@@ -18192,7 +18212,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>42005</v>
       </c>
@@ -18216,7 +18236,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>533</v>
@@ -18240,7 +18260,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>42036</v>
       </c>
@@ -18266,7 +18286,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>534</v>
@@ -18286,7 +18306,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>42064</v>
       </c>
@@ -18314,7 +18334,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>51</v>
@@ -18336,7 +18356,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>536</v>
@@ -18358,7 +18378,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>42095</v>
       </c>
@@ -18382,7 +18402,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>42125</v>
       </c>
@@ -18408,7 +18428,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>42156</v>
       </c>
@@ -18432,7 +18452,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>42186</v>
       </c>
@@ -18456,7 +18476,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>42217</v>
       </c>
@@ -18480,7 +18500,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>42248</v>
       </c>
@@ -18508,7 +18528,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>229</v>
@@ -18530,7 +18550,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>515</v>
@@ -18550,7 +18570,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>42278</v>
       </c>
@@ -18578,7 +18598,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>226</v>
@@ -18602,7 +18622,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>541</v>
@@ -18622,7 +18642,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>42309</v>
       </c>
@@ -18646,7 +18666,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>42339</v>
       </c>
@@ -18672,7 +18692,7 @@
         <v>42259</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>553</v>
@@ -18692,7 +18712,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="47" t="s">
         <v>263</v>
       </c>
@@ -18714,7 +18734,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>42370</v>
       </c>
@@ -18738,7 +18758,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>53</v>
@@ -18762,7 +18782,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>555</v>
@@ -18782,7 +18802,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>42401</v>
       </c>
@@ -18808,7 +18828,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>556</v>
@@ -18828,7 +18848,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>42430</v>
       </c>
@@ -18854,7 +18874,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>557</v>
@@ -18874,7 +18894,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>42461</v>
       </c>
@@ -18898,7 +18918,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>42491</v>
       </c>
@@ -18924,7 +18944,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>424</v>
@@ -18944,7 +18964,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>42522</v>
       </c>
@@ -18970,7 +18990,7 @@
         <v>42649</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>559</v>
@@ -18990,7 +19010,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>42552</v>
       </c>
@@ -19014,7 +19034,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>42583</v>
       </c>
@@ -19038,7 +19058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>561</v>
@@ -19058,7 +19078,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>42614</v>
       </c>
@@ -19084,7 +19104,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>567</v>
@@ -19104,7 +19124,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>568</v>
@@ -19124,7 +19144,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>42644</v>
       </c>
@@ -19150,7 +19170,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>377</v>
@@ -19168,7 +19188,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>42675</v>
       </c>
@@ -19194,7 +19214,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>226</v>
@@ -19218,7 +19238,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>377</v>
@@ -19238,7 +19258,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>42705</v>
       </c>
@@ -19264,7 +19284,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>569</v>
@@ -19284,7 +19304,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="47" t="s">
         <v>262</v>
       </c>
@@ -19306,7 +19326,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>42736</v>
       </c>
@@ -19330,7 +19350,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>573</v>
@@ -19350,7 +19370,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>42767</v>
       </c>
@@ -19370,7 +19390,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>42795</v>
       </c>
@@ -19396,7 +19416,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>191</v>
@@ -19416,7 +19436,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
         <v>574</v>
@@ -19438,7 +19458,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>226</v>
@@ -19458,7 +19478,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>229</v>
@@ -19482,7 +19502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>53</v>
@@ -19504,7 +19524,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>581</v>
@@ -19524,7 +19544,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>42826</v>
       </c>
@@ -19546,7 +19566,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>42856</v>
       </c>
@@ -19572,7 +19592,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
         <v>51</v>
@@ -19594,7 +19614,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>51</v>
@@ -19616,7 +19636,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>42887</v>
       </c>
@@ -19642,7 +19662,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>42917</v>
       </c>
@@ -19666,7 +19686,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>42948</v>
       </c>
@@ -19692,7 +19712,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>51</v>
@@ -19714,7 +19734,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>42979</v>
       </c>
@@ -19740,7 +19760,7 @@
       </c>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>57</v>
@@ -19762,7 +19782,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>581</v>
@@ -19782,7 +19802,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>43009</v>
       </c>
@@ -19802,7 +19822,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>43040</v>
       </c>
@@ -19828,7 +19848,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>43070</v>
       </c>
@@ -19854,7 +19874,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="47" t="s">
         <v>434</v>
       </c>
@@ -19876,7 +19896,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>43101</v>
       </c>
@@ -19902,7 +19922,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>353</v>
@@ -19922,7 +19942,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>43132</v>
       </c>
@@ -19942,7 +19962,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>43160</v>
       </c>
@@ -19962,7 +19982,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>43191</v>
       </c>
@@ -19988,7 +20008,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>43221</v>
       </c>
@@ -20014,7 +20034,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20" t="s">
         <v>51</v>
@@ -20036,7 +20056,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>248</v>
@@ -20056,7 +20076,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>43252</v>
       </c>
@@ -20080,7 +20100,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>43282</v>
       </c>
@@ -20106,7 +20126,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20" t="s">
         <v>51</v>
@@ -20128,7 +20148,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>51</v>
@@ -20150,7 +20170,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>51</v>
@@ -20172,7 +20192,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>588</v>
@@ -20192,7 +20212,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>43313</v>
       </c>
@@ -20216,7 +20236,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>43344</v>
       </c>
@@ -20242,7 +20262,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>43374</v>
       </c>
@@ -20262,7 +20282,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>43405</v>
       </c>
@@ -20288,7 +20308,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>43435</v>
       </c>
@@ -20312,7 +20332,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>540</v>
@@ -20332,7 +20352,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="47" t="s">
         <v>435</v>
       </c>
@@ -20354,7 +20374,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>43466</v>
       </c>
@@ -20380,7 +20400,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>43497</v>
       </c>
@@ -20404,7 +20424,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>43525</v>
       </c>
@@ -20430,7 +20450,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>131</v>
@@ -20450,7 +20470,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>43556</v>
       </c>
@@ -20474,7 +20494,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>43586</v>
       </c>
@@ -20498,7 +20518,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>43617</v>
       </c>
@@ -20524,7 +20544,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20" t="s">
         <v>53</v>
@@ -20546,7 +20566,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>66</v>
@@ -20568,7 +20588,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>600</v>
@@ -20588,7 +20608,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>43647</v>
       </c>
@@ -20614,7 +20634,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>228</v>
@@ -20638,7 +20658,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>228</v>
@@ -20660,7 +20680,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20" t="s">
         <v>228</v>
@@ -20682,7 +20702,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20" t="s">
         <v>228</v>
@@ -20704,7 +20724,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20" t="s">
         <v>226</v>
@@ -20726,7 +20746,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20" t="s">
         <v>87</v>
@@ -20746,7 +20766,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>43678</v>
       </c>
@@ -20766,7 +20786,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>43709</v>
       </c>
@@ -20792,7 +20812,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>43739</v>
       </c>
@@ -20816,7 +20836,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>43770</v>
       </c>
@@ -20840,7 +20860,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>43800</v>
       </c>
@@ -20860,7 +20880,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="47" t="s">
         <v>438</v>
       </c>
@@ -20882,7 +20902,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>43831</v>
       </c>
@@ -20906,7 +20926,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20" t="s">
         <v>614</v>
@@ -20926,7 +20946,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>43862</v>
       </c>
@@ -20946,7 +20966,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>43891</v>
       </c>
@@ -20966,7 +20986,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>43922</v>
       </c>
@@ -20986,7 +21006,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>43952</v>
       </c>
@@ -21006,7 +21026,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>43983</v>
       </c>
@@ -21028,7 +21048,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>44013</v>
       </c>
@@ -21052,7 +21072,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20" t="s">
         <v>64</v>
@@ -21072,7 +21092,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>44044</v>
       </c>
@@ -21096,7 +21116,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20" t="s">
         <v>52</v>
@@ -21116,7 +21136,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20" t="s">
         <v>191</v>
@@ -21136,7 +21156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>44075</v>
       </c>
@@ -21160,7 +21180,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>44105</v>
       </c>
@@ -21180,7 +21200,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>44136</v>
       </c>
@@ -21200,7 +21220,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>44166</v>
       </c>
@@ -21222,7 +21242,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="47" t="s">
         <v>437</v>
       </c>
@@ -21244,7 +21264,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>44197</v>
       </c>
@@ -21264,7 +21284,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>44228</v>
       </c>
@@ -21284,7 +21304,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>44256</v>
       </c>
@@ -21304,7 +21324,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>44287</v>
       </c>
@@ -21324,7 +21344,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>44317</v>
       </c>
@@ -21344,7 +21364,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>44348</v>
       </c>
@@ -21364,7 +21384,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>44378</v>
       </c>
@@ -21384,7 +21404,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>44409</v>
       </c>
@@ -21404,7 +21424,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>44440</v>
       </c>
@@ -21424,7 +21444,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>44470</v>
       </c>
@@ -21444,7 +21464,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>44501</v>
       </c>
@@ -21464,7 +21484,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>44531</v>
       </c>
@@ -21488,7 +21508,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20" t="s">
         <v>225</v>
@@ -21510,7 +21530,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="47" t="s">
         <v>436</v>
       </c>
@@ -21532,7 +21552,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>44562</v>
       </c>
@@ -21552,7 +21572,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>44593</v>
       </c>
@@ -21572,7 +21592,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>44621</v>
       </c>
@@ -21596,7 +21616,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20" t="s">
         <v>53</v>
@@ -21618,7 +21638,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20" t="s">
         <v>642</v>
@@ -21638,7 +21658,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>44652</v>
       </c>
@@ -21664,7 +21684,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20" t="s">
         <v>117</v>
@@ -21684,7 +21704,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="48"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>44682</v>
       </c>
@@ -21710,7 +21730,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20" t="s">
         <v>644</v>
@@ -21732,7 +21752,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20" t="s">
         <v>636</v>
@@ -21752,7 +21772,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>44713</v>
       </c>
@@ -21778,7 +21798,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20" t="s">
         <v>559</v>
@@ -21798,7 +21818,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>44743</v>
       </c>
@@ -21824,7 +21844,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20" t="s">
         <v>643</v>
@@ -21846,7 +21866,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20" t="s">
         <v>130</v>
@@ -21866,7 +21886,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="48"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>44774</v>
       </c>
@@ -21892,7 +21912,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20" t="s">
         <v>191</v>
@@ -21912,7 +21932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20" t="s">
         <v>642</v>
@@ -21932,7 +21952,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>44805</v>
       </c>
@@ -21958,7 +21978,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20" t="s">
         <v>57</v>
@@ -21980,7 +22000,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20" t="s">
         <v>641</v>
@@ -22000,7 +22020,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <f>EDATE(A758,1)</f>
         <v>44835</v>
@@ -22025,7 +22045,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <f t="shared" ref="A762:A773" si="0">EDATE(A761,1)</f>
         <v>44866</v>
@@ -22052,7 +22072,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20" t="s">
         <v>639</v>
@@ -22072,7 +22092,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
         <f>EDATE(A762,1)</f>
         <v>44896</v>
@@ -22097,7 +22117,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20" t="s">
         <v>64</v>
@@ -22119,7 +22139,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20" t="s">
         <v>636</v>
@@ -22139,7 +22159,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="47" t="s">
         <v>628</v>
       </c>
@@ -22157,7 +22177,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
         <f>EDATE(A764,1)</f>
         <v>44927</v>
@@ -22184,7 +22204,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20" t="s">
         <v>191</v>
@@ -22204,7 +22224,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20" t="s">
         <v>52</v>
@@ -22226,7 +22246,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
         <f>EDATE(A768,1)</f>
         <v>44958</v>
@@ -22249,7 +22269,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
         <f t="shared" si="0"/>
         <v>44986</v>
@@ -22270,7 +22290,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -22291,7 +22311,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
         <f>EDATE(A773,1)</f>
         <v>45047</v>
@@ -22318,7 +22338,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20" t="s">
         <v>191</v>
@@ -22338,7 +22358,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40"/>
       <c r="B776" s="20" t="s">
         <v>51</v>
@@ -22360,15 +22380,19 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
         <v>45078</v>
       </c>
-      <c r="B777" s="20"/>
+      <c r="B777" s="20" t="s">
+        <v>654</v>
+      </c>
       <c r="C777" s="13">
         <v>1.25</v>
       </c>
-      <c r="D777" s="39"/>
+      <c r="D777" s="39">
+        <v>3</v>
+      </c>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
       <c r="G777" s="13">
@@ -22378,38 +22402,36 @@
       <c r="H777" s="39"/>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
-      <c r="K777" s="20"/>
-    </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A778" s="40">
-        <v>45108</v>
-      </c>
+      <c r="K777" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A778" s="40"/>
       <c r="B778" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C778" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D778" s="39"/>
+        <v>656</v>
+      </c>
+      <c r="C778" s="13"/>
+      <c r="D778" s="39">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G778" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H778" s="39"/>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
-      <c r="K778" s="48">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K778" s="20"/>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B779" s="20" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="C779" s="13">
         <v>1.25</v>
@@ -22421,210 +22443,200 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H779" s="39">
-        <v>2</v>
-      </c>
+      <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
-      <c r="K779" s="20" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K779" s="48">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20" t="s">
-        <v>51</v>
+        <v>653</v>
       </c>
       <c r="C780" s="13"/>
-      <c r="D780" s="39"/>
+      <c r="D780" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E780" s="9"/>
       <c r="F780" s="20"/>
       <c r="G780" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H780" s="39">
-        <v>1</v>
-      </c>
+      <c r="H780" s="39"/>
       <c r="I780" s="9"/>
       <c r="J780" s="11"/>
-      <c r="K780" s="48">
-        <v>45148</v>
-      </c>
-    </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A781" s="40"/>
+      <c r="K780" s="48"/>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="40">
+        <v>45139</v>
+      </c>
       <c r="B781" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C781" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C781" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D781" s="39"/>
       <c r="E781" s="9"/>
       <c r="F781" s="20"/>
-      <c r="G781" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G781" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H781" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I781" s="9"/>
       <c r="J781" s="11"/>
-      <c r="K781" s="48">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A782" s="40">
-        <v>45170</v>
-      </c>
+      <c r="K781" s="20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="40"/>
       <c r="B782" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C782" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D782" s="39">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
       <c r="E782" s="9"/>
       <c r="F782" s="20"/>
-      <c r="G782" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H782" s="39"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39">
+        <v>1</v>
+      </c>
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
       <c r="K782" s="48">
-        <v>45176</v>
-      </c>
-    </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A783" s="40">
-        <v>45200</v>
-      </c>
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="40"/>
       <c r="B783" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C783" s="13">
-        <v>1.25</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C783" s="13"/>
       <c r="D783" s="39"/>
       <c r="E783" s="9"/>
       <c r="F783" s="20"/>
-      <c r="G783" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H783" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" s="9"/>
       <c r="J783" s="11"/>
-      <c r="K783" s="20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K783" s="48">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40"/>
       <c r="B784" s="20" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C784" s="13"/>
-      <c r="D784" s="39"/>
+      <c r="D784" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E784" s="9"/>
       <c r="F784" s="20"/>
       <c r="G784" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H784" s="39">
-        <v>1</v>
-      </c>
+      <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
-      <c r="K784" s="48">
-        <v>45212</v>
-      </c>
-    </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A785" s="40"/>
+      <c r="K784" s="48"/>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" s="40">
+        <v>45170</v>
+      </c>
       <c r="B785" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C785" s="13"/>
-      <c r="D785" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="C785" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D785" s="39">
+        <v>1</v>
+      </c>
       <c r="E785" s="9"/>
       <c r="F785" s="20"/>
-      <c r="G785" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H785" s="39">
-        <v>1</v>
-      </c>
+      <c r="G785" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H785" s="39"/>
       <c r="I785" s="9"/>
       <c r="J785" s="11"/>
       <c r="K785" s="48">
-        <v>45190</v>
-      </c>
-    </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A786" s="40">
-        <v>45231</v>
-      </c>
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="40"/>
       <c r="B786" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C786" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D786" s="39"/>
+        <v>85</v>
+      </c>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E786" s="9"/>
       <c r="F786" s="20"/>
-      <c r="G786" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H786" s="39">
-        <v>2</v>
-      </c>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
       <c r="I786" s="9"/>
       <c r="J786" s="11"/>
-      <c r="K786" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K786" s="48"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B787" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C787" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C787" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D787" s="39"/>
       <c r="E787" s="9"/>
       <c r="F787" s="20"/>
-      <c r="G787" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G787" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H787" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I787" s="9"/>
       <c r="J787" s="11"/>
-      <c r="K787" s="48">
-        <v>45278</v>
-      </c>
-    </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A788" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="B788" s="20"/>
+      <c r="K787" s="20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="40"/>
+      <c r="B788" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C788" s="13"/>
       <c r="D788" s="39"/>
       <c r="E788" s="9"/>
@@ -22633,17 +22645,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H788" s="39"/>
+      <c r="H788" s="39">
+        <v>1</v>
+      </c>
       <c r="I788" s="9"/>
       <c r="J788" s="11"/>
-      <c r="K788" s="20"/>
-    </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A789" s="40">
-        <v>45322</v>
-      </c>
+      <c r="K788" s="48">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="40"/>
       <c r="B789" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C789" s="13"/>
       <c r="D789" s="39"/>
@@ -22654,19 +22668,23 @@
         <v/>
       </c>
       <c r="H789" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I789" s="9"/>
       <c r="J789" s="11"/>
-      <c r="K789" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K789" s="48">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40"/>
-      <c r="B790" s="20"/>
+      <c r="B790" s="20" t="s">
+        <v>652</v>
+      </c>
       <c r="C790" s="13"/>
-      <c r="D790" s="39"/>
+      <c r="D790" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E790" s="9"/>
       <c r="F790" s="20"/>
       <c r="G790" s="13" t="str">
@@ -22676,29 +22694,43 @@
       <c r="H790" s="39"/>
       <c r="I790" s="9"/>
       <c r="J790" s="11"/>
-      <c r="K790" s="20"/>
-    </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A791" s="40"/>
-      <c r="B791" s="20"/>
-      <c r="C791" s="13"/>
+      <c r="K790" s="48"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B791" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C791" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D791" s="39"/>
       <c r="E791" s="9"/>
       <c r="F791" s="20"/>
-      <c r="G791" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H791" s="39"/>
+      <c r="G791" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H791" s="39">
+        <v>2</v>
+      </c>
       <c r="I791" s="9"/>
       <c r="J791" s="11"/>
-      <c r="K791" s="20"/>
-    </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K791" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40"/>
-      <c r="B792" s="20"/>
+      <c r="B792" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="C792" s="13"/>
-      <c r="D792" s="39"/>
+      <c r="D792" s="39">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="E792" s="9"/>
       <c r="F792" s="20"/>
       <c r="G792" s="13" t="str">
@@ -22710,9 +22742,13 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A793" s="40"/>
-      <c r="B793" s="20"/>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A793" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B793" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C793" s="13"/>
       <c r="D793" s="39"/>
       <c r="E793" s="9"/>
@@ -22721,16 +22757,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H793" s="39"/>
+      <c r="H793" s="39">
+        <v>1</v>
+      </c>
       <c r="I793" s="9"/>
       <c r="J793" s="11"/>
-      <c r="K793" s="20"/>
-    </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K793" s="48">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40"/>
-      <c r="B794" s="20"/>
+      <c r="B794" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="C794" s="13"/>
-      <c r="D794" s="39"/>
+      <c r="D794" s="39">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E794" s="9"/>
       <c r="F794" s="20"/>
       <c r="G794" s="13" t="str">
@@ -22740,10 +22784,12 @@
       <c r="H794" s="39"/>
       <c r="I794" s="9"/>
       <c r="J794" s="11"/>
-      <c r="K794" s="20"/>
-    </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A795" s="40"/>
+      <c r="K794" s="48"/>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A795" s="47" t="s">
+        <v>648</v>
+      </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
       <c r="D795" s="39"/>
@@ -22758,9 +22804,13 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A796" s="40"/>
-      <c r="B796" s="20"/>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A796" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B796" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C796" s="13"/>
       <c r="D796" s="39"/>
       <c r="E796" s="9"/>
@@ -22769,12 +22819,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H796" s="39"/>
+      <c r="H796" s="39">
+        <v>3</v>
+      </c>
       <c r="I796" s="9"/>
       <c r="J796" s="11"/>
-      <c r="K796" s="20"/>
-    </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K796" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40"/>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -22790,7 +22844,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40"/>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -22806,7 +22860,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40"/>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -22822,7 +22876,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40"/>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -22838,7 +22892,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40"/>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -22854,7 +22908,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40"/>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -22870,7 +22924,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40"/>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -22886,7 +22940,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40"/>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -22902,7 +22956,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40"/>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -22918,7 +22972,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40"/>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -22934,7 +22988,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40"/>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -22950,7 +23004,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40"/>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -22966,7 +23020,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40"/>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -22982,7 +23036,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40"/>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -22998,7 +23052,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40"/>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -23014,7 +23068,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40"/>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -23030,7 +23084,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40"/>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -23046,7 +23100,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40"/>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -23062,7 +23116,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40"/>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -23078,7 +23132,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40"/>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -23094,7 +23148,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40"/>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -23110,7 +23164,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40"/>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -23126,7 +23180,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40"/>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -23142,7 +23196,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40"/>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -23158,7 +23212,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40"/>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -23174,7 +23228,7 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40"/>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -23190,7 +23244,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40"/>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -23206,7 +23260,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40"/>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -23222,7 +23276,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40"/>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -23238,7 +23292,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40"/>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -23254,7 +23308,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40"/>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -23270,7 +23324,7 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40"/>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -23286,7 +23340,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40"/>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -23302,7 +23356,7 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40"/>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -23318,7 +23372,7 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40"/>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -23334,7 +23388,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40"/>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -23350,7 +23404,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40"/>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -23366,7 +23420,7 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="40"/>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -23382,7 +23436,7 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="40"/>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -23398,7 +23452,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="40"/>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -23414,7 +23468,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="40"/>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -23430,7 +23484,7 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="40"/>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -23446,7 +23500,7 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="40"/>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -23462,7 +23516,7 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="40"/>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -23478,7 +23532,7 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="40"/>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -23494,7 +23548,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="40"/>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -23510,7 +23564,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="40"/>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -23526,7 +23580,7 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="40"/>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -23542,7 +23596,7 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="40"/>
       <c r="B845" s="20"/>
       <c r="C845" s="13"/>
@@ -23558,7 +23612,7 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="40"/>
       <c r="B846" s="20"/>
       <c r="C846" s="13"/>
@@ -23574,7 +23628,7 @@
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="40"/>
       <c r="B847" s="20"/>
       <c r="C847" s="13"/>
@@ -23590,7 +23644,7 @@
       <c r="J847" s="11"/>
       <c r="K847" s="20"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="40"/>
       <c r="B848" s="20"/>
       <c r="C848" s="13"/>
@@ -23606,10 +23660,10 @@
       <c r="J848" s="11"/>
       <c r="K848" s="20"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A849" s="51"/>
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A849" s="40"/>
       <c r="B849" s="20"/>
-      <c r="C849" s="41"/>
+      <c r="C849" s="13"/>
       <c r="D849" s="39"/>
       <c r="E849" s="9"/>
       <c r="F849" s="20"/>
@@ -23621,6 +23675,118 @@
       <c r="I849" s="9"/>
       <c r="J849" s="11"/>
       <c r="K849" s="20"/>
+    </row>
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A850" s="40"/>
+      <c r="B850" s="20"/>
+      <c r="C850" s="13"/>
+      <c r="D850" s="39"/>
+      <c r="E850" s="9"/>
+      <c r="F850" s="20"/>
+      <c r="G850" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H850" s="39"/>
+      <c r="I850" s="9"/>
+      <c r="J850" s="11"/>
+      <c r="K850" s="20"/>
+    </row>
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A851" s="40"/>
+      <c r="B851" s="20"/>
+      <c r="C851" s="13"/>
+      <c r="D851" s="39"/>
+      <c r="E851" s="9"/>
+      <c r="F851" s="20"/>
+      <c r="G851" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H851" s="39"/>
+      <c r="I851" s="9"/>
+      <c r="J851" s="11"/>
+      <c r="K851" s="20"/>
+    </row>
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A852" s="40"/>
+      <c r="B852" s="20"/>
+      <c r="C852" s="13"/>
+      <c r="D852" s="39"/>
+      <c r="E852" s="9"/>
+      <c r="F852" s="20"/>
+      <c r="G852" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H852" s="39"/>
+      <c r="I852" s="9"/>
+      <c r="J852" s="11"/>
+      <c r="K852" s="20"/>
+    </row>
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A853" s="40"/>
+      <c r="B853" s="20"/>
+      <c r="C853" s="13"/>
+      <c r="D853" s="39"/>
+      <c r="E853" s="9"/>
+      <c r="F853" s="20"/>
+      <c r="G853" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H853" s="39"/>
+      <c r="I853" s="9"/>
+      <c r="J853" s="11"/>
+      <c r="K853" s="20"/>
+    </row>
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A854" s="40"/>
+      <c r="B854" s="20"/>
+      <c r="C854" s="13"/>
+      <c r="D854" s="39"/>
+      <c r="E854" s="9"/>
+      <c r="F854" s="20"/>
+      <c r="G854" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H854" s="39"/>
+      <c r="I854" s="9"/>
+      <c r="J854" s="11"/>
+      <c r="K854" s="20"/>
+    </row>
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A855" s="40"/>
+      <c r="B855" s="20"/>
+      <c r="C855" s="13"/>
+      <c r="D855" s="39"/>
+      <c r="E855" s="9"/>
+      <c r="F855" s="20"/>
+      <c r="G855" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H855" s="39"/>
+      <c r="I855" s="9"/>
+      <c r="J855" s="11"/>
+      <c r="K855" s="20"/>
+    </row>
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A856" s="51"/>
+      <c r="B856" s="20"/>
+      <c r="C856" s="41"/>
+      <c r="D856" s="39"/>
+      <c r="E856" s="9"/>
+      <c r="F856" s="20"/>
+      <c r="G856" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H856" s="39"/>
+      <c r="I856" s="9"/>
+      <c r="J856" s="11"/>
+      <c r="K856" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23637,10 +23803,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23663,7 +23829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -23671,21 +23837,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -23698,7 +23864,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23727,7 +23893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.5</v>
       </c>
@@ -23737,15 +23903,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5000000000000008E-2</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -23757,17 +23921,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -23788,7 +23952,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -23815,7 +23979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -23841,7 +24005,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -23867,7 +24031,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -23893,7 +24057,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -23919,7 +24083,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -23945,7 +24109,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -23971,7 +24135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -23997,7 +24161,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -24017,7 +24181,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -24037,7 +24201,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -24057,7 +24221,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -24078,7 +24242,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -24099,7 +24263,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -24120,7 +24284,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -24141,7 +24305,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -24162,7 +24326,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -24183,7 +24347,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -24204,7 +24368,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -24225,7 +24389,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -24246,7 +24410,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -24267,7 +24431,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -24288,7 +24452,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -24309,7 +24473,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -24330,7 +24494,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -24351,7 +24515,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -24372,7 +24536,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -24393,7 +24557,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -24414,7 +24578,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -24435,7 +24599,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -24456,7 +24620,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -24477,7 +24641,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -24486,7 +24650,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -24495,7 +24659,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -24504,7 +24668,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -24513,7 +24677,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -24522,7 +24686,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -24531,7 +24695,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -24540,7 +24704,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -24549,7 +24713,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -24558,7 +24722,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -24567,7 +24731,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -24576,7 +24740,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -24585,7 +24749,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -24594,7 +24758,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -24603,7 +24767,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -24612,7 +24776,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -24621,7 +24785,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -24630,7 +24794,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -24639,7 +24803,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -24648,7 +24812,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -24657,7 +24821,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -24666,7 +24830,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -24675,7 +24839,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -24684,7 +24848,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -24693,7 +24857,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -24702,7 +24866,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -24711,7 +24875,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -24720,7 +24884,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -24729,7 +24893,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -24738,7 +24902,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="665">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1938,9 +1938,6 @@
     <t>DOMESTIC 1/12/23</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>7/31-8/1/2023</t>
   </si>
   <si>
@@ -2005,6 +2002,33 @@
   </si>
   <si>
     <t>UT(0-0-57)</t>
+  </si>
+  <si>
+    <t>5/26/2023 (25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-42)</t>
+  </si>
+  <si>
+    <t>4/24,25/2023</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>3/1, 6,7,8,16,23,28,29/2023</t>
+  </si>
+  <si>
+    <t>UT(2-0-43)</t>
+  </si>
+  <si>
+    <t>A(9-0-0)</t>
+  </si>
+  <si>
+    <t>2/3,9,17,20-23,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2900,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2943,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +3007,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3067,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3133,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +3196,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3294,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3353,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3418,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,7 +3461,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3536,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3722,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3764,7 +3788,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3846,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3912,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3968,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,7 +4043,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4062,7 +4086,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4152,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,7 +4208,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4306,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,7 +4369,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4411,7 +4435,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K856" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K861" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4789,12 +4813,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K856"/>
+  <dimension ref="A2:K861"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A772" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A766" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="F784" sqref="F784"/>
+      <selection pane="bottomLeft" activeCell="F776" sqref="F776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,7 +4975,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.039999999999793</v>
+        <v>17.73399999999981</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -21641,7 +21665,7 @@
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C744" s="13"/>
       <c r="D744" s="39">
@@ -21663,7 +21687,7 @@
         <v>44652</v>
       </c>
       <c r="B745" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C745" s="13">
         <v>1.25</v>
@@ -21733,7 +21757,7 @@
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C748" s="13"/>
       <c r="D748" s="39">
@@ -21749,13 +21773,13 @@
       <c r="I748" s="9"/>
       <c r="J748" s="11"/>
       <c r="K748" s="20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C749" s="13"/>
       <c r="D749" s="39">
@@ -21847,7 +21871,7 @@
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C753" s="13"/>
       <c r="D753" s="39">
@@ -21935,7 +21959,7 @@
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C757" s="13"/>
       <c r="D757" s="39">
@@ -22003,7 +22027,7 @@
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C760" s="13"/>
       <c r="D760" s="39">
@@ -22026,7 +22050,7 @@
         <v>44835</v>
       </c>
       <c r="B761" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C761" s="13">
         <v>1.25</v>
@@ -22047,11 +22071,11 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <f t="shared" ref="A762:A773" si="0">EDATE(A761,1)</f>
+        <f t="shared" ref="A762:A774" si="0">EDATE(A761,1)</f>
         <v>44866</v>
       </c>
       <c r="B762" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C762" s="13">
         <v>1.25</v>
@@ -22069,13 +22093,13 @@
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
       <c r="K762" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C763" s="13"/>
       <c r="D763" s="39">
@@ -22142,7 +22166,7 @@
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C766" s="13"/>
       <c r="D766" s="39">
@@ -22247,59 +22271,61 @@
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" s="40">
-        <f>EDATE(A768,1)</f>
-        <v>44958</v>
-      </c>
+      <c r="A771" s="40"/>
       <c r="B771" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="C771" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D771" s="39"/>
+        <v>642</v>
+      </c>
+      <c r="C771" s="13"/>
+      <c r="D771" s="39">
+        <v>1</v>
+      </c>
       <c r="E771" s="9"/>
       <c r="F771" s="20"/>
-      <c r="G771" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G771" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H771" s="39"/>
       <c r="I771" s="9"/>
       <c r="J771" s="11"/>
-      <c r="K771" s="20"/>
+      <c r="K771" s="48">
+        <v>44951</v>
+      </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="40">
-        <f t="shared" si="0"/>
-        <v>44986</v>
-      </c>
-      <c r="B772" s="20"/>
-      <c r="C772" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D772" s="39"/>
+      <c r="A772" s="40"/>
+      <c r="B772" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C772" s="13"/>
+      <c r="D772" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E772" s="9"/>
       <c r="F772" s="20"/>
-      <c r="G772" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G772" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H772" s="39"/>
       <c r="I772" s="9"/>
       <c r="J772" s="11"/>
-      <c r="K772" s="20"/>
+      <c r="K772" s="48"/>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="B773" s="20"/>
+        <f>EDATE(A768,1)</f>
+        <v>44958</v>
+      </c>
+      <c r="B773" s="20" t="s">
+        <v>663</v>
+      </c>
       <c r="C773" s="13">
         <v>1.25</v>
       </c>
-      <c r="D773" s="39"/>
+      <c r="D773" s="39">
+        <v>9</v>
+      </c>
       <c r="E773" s="9"/>
       <c r="F773" s="20"/>
       <c r="G773" s="13">
@@ -22309,42 +22335,46 @@
       <c r="H773" s="39"/>
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
-      <c r="K773" s="20"/>
+      <c r="K773" s="20" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <f>EDATE(A773,1)</f>
-        <v>45047</v>
+        <f t="shared" si="0"/>
+        <v>44986</v>
       </c>
       <c r="B774" s="20" t="s">
-        <v>51</v>
+        <v>660</v>
       </c>
       <c r="C774" s="13">
         <v>1.25</v>
       </c>
-      <c r="D774" s="39"/>
+      <c r="D774" s="39">
+        <v>7</v>
+      </c>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
       <c r="G774" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H774" s="39">
-        <v>1</v>
-      </c>
+      <c r="H774" s="39"/>
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
-      <c r="K774" s="48">
-        <v>45072</v>
+      <c r="K774" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20" t="s">
-        <v>191</v>
+        <v>662</v>
       </c>
       <c r="C775" s="13"/>
-      <c r="D775" s="39"/>
+      <c r="D775" s="39">
+        <v>2.09</v>
+      </c>
       <c r="E775" s="9"/>
       <c r="F775" s="20"/>
       <c r="G775" s="13" t="str">
@@ -22354,282 +22384,280 @@
       <c r="H775" s="39"/>
       <c r="I775" s="9"/>
       <c r="J775" s="11"/>
-      <c r="K775" s="48">
-        <v>45076</v>
-      </c>
+      <c r="K775" s="20"/>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" s="40"/>
+      <c r="A776" s="40">
+        <f>EDATE(A774,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B776" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C776" s="13"/>
-      <c r="D776" s="39"/>
+        <v>636</v>
+      </c>
+      <c r="C776" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D776" s="39">
+        <v>2</v>
+      </c>
       <c r="E776" s="9"/>
       <c r="F776" s="20"/>
-      <c r="G776" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H776" s="39">
-        <v>1</v>
-      </c>
+      <c r="G776" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H776" s="39"/>
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
-      <c r="K776" s="48">
-        <v>45064</v>
+      <c r="K776" s="20" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A777" s="40"/>
       <c r="B777" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="C777" s="13">
-        <v>1.25</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C777" s="13"/>
       <c r="D777" s="39">
-        <v>3</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
-      <c r="G777" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G777" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H777" s="39"/>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
-      <c r="K777" s="20" t="s">
-        <v>655</v>
-      </c>
+      <c r="K777" s="20"/>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" s="40"/>
+      <c r="A778" s="40">
+        <f>EDATE(A776,1)</f>
+        <v>45047</v>
+      </c>
       <c r="B778" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="C778" s="13"/>
-      <c r="D778" s="39">
-        <v>0.11900000000000001</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C778" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D778" s="39"/>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H778" s="39"/>
+      <c r="G778" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H778" s="39">
+        <v>1</v>
+      </c>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
-      <c r="K778" s="20"/>
+      <c r="K778" s="48" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A779" s="40"/>
       <c r="B779" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C779" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C779" s="13"/>
       <c r="D779" s="39"/>
       <c r="E779" s="9"/>
       <c r="F779" s="20"/>
-      <c r="G779" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G779" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
       <c r="K779" s="48">
-        <v>45119</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20" t="s">
-        <v>653</v>
+        <v>51</v>
       </c>
       <c r="C780" s="13"/>
-      <c r="D780" s="39">
-        <v>4.4000000000000004E-2</v>
-      </c>
+      <c r="D780" s="39"/>
       <c r="E780" s="9"/>
       <c r="F780" s="20"/>
       <c r="G780" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H780" s="39"/>
+      <c r="H780" s="39">
+        <v>1</v>
+      </c>
       <c r="I780" s="9"/>
       <c r="J780" s="11"/>
-      <c r="K780" s="48"/>
+      <c r="K780" s="48">
+        <v>45064</v>
+      </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A781" s="40"/>
       <c r="B781" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C781" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D781" s="39"/>
+        <v>657</v>
+      </c>
+      <c r="C781" s="13"/>
+      <c r="D781" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E781" s="9"/>
       <c r="F781" s="20"/>
-      <c r="G781" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H781" s="39">
-        <v>2</v>
-      </c>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="39"/>
       <c r="I781" s="9"/>
       <c r="J781" s="11"/>
-      <c r="K781" s="20" t="s">
-        <v>635</v>
-      </c>
+      <c r="K781" s="48"/>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A782" s="40"/>
+      <c r="A782" s="40">
+        <v>45078</v>
+      </c>
       <c r="B782" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C782" s="13"/>
-      <c r="D782" s="39"/>
+        <v>653</v>
+      </c>
+      <c r="C782" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D782" s="39">
+        <v>3</v>
+      </c>
       <c r="E782" s="9"/>
       <c r="F782" s="20"/>
-      <c r="G782" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H782" s="39">
-        <v>1</v>
-      </c>
+      <c r="G782" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H782" s="39"/>
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
-      <c r="K782" s="48">
-        <v>45148</v>
+      <c r="K782" s="20" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40"/>
       <c r="B783" s="20" t="s">
-        <v>51</v>
+        <v>655</v>
       </c>
       <c r="C783" s="13"/>
-      <c r="D783" s="39"/>
+      <c r="D783" s="39">
+        <v>0.11900000000000001</v>
+      </c>
       <c r="E783" s="9"/>
       <c r="F783" s="20"/>
       <c r="G783" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H783" s="39">
-        <v>1</v>
-      </c>
+      <c r="H783" s="39"/>
       <c r="I783" s="9"/>
       <c r="J783" s="11"/>
-      <c r="K783" s="48">
-        <v>45161</v>
-      </c>
+      <c r="K783" s="20"/>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" s="40"/>
+      <c r="A784" s="40">
+        <v>45108</v>
+      </c>
       <c r="B784" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C784" s="13"/>
-      <c r="D784" s="39">
-        <v>8.500000000000002E-2</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C784" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D784" s="39"/>
       <c r="E784" s="9"/>
       <c r="F784" s="20"/>
-      <c r="G784" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G784" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
-      <c r="K784" s="48"/>
+      <c r="K784" s="48">
+        <v>45119</v>
+      </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A785" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A785" s="40"/>
       <c r="B785" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C785" s="13">
-        <v>1.25</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C785" s="13"/>
       <c r="D785" s="39">
-        <v>1</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E785" s="9"/>
       <c r="F785" s="20"/>
-      <c r="G785" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H785" s="39"/>
       <c r="I785" s="9"/>
       <c r="J785" s="11"/>
-      <c r="K785" s="48">
-        <v>45176</v>
-      </c>
+      <c r="K785" s="48"/>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" s="40"/>
+      <c r="A786" s="40">
+        <v>45139</v>
+      </c>
       <c r="B786" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C786" s="13"/>
-      <c r="D786" s="39">
-        <v>0.01</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C786" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D786" s="39"/>
       <c r="E786" s="9"/>
       <c r="F786" s="20"/>
-      <c r="G786" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H786" s="39"/>
+      <c r="G786" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H786" s="39">
+        <v>2</v>
+      </c>
       <c r="I786" s="9"/>
       <c r="J786" s="11"/>
-      <c r="K786" s="48"/>
+      <c r="K786" s="20" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A787" s="40"/>
       <c r="B787" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C787" s="13">
-        <v>1.25</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C787" s="13"/>
       <c r="D787" s="39"/>
       <c r="E787" s="9"/>
       <c r="F787" s="20"/>
-      <c r="G787" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H787" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787" s="9"/>
       <c r="J787" s="11"/>
-      <c r="K787" s="20" t="s">
-        <v>646</v>
+      <c r="K787" s="48">
+        <v>45148</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
@@ -22651,101 +22679,103 @@
       <c r="I788" s="9"/>
       <c r="J788" s="11"/>
       <c r="K788" s="48">
-        <v>45212</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40"/>
       <c r="B789" s="20" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C789" s="13"/>
-      <c r="D789" s="39"/>
+      <c r="D789" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E789" s="9"/>
       <c r="F789" s="20"/>
       <c r="G789" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H789" s="39">
-        <v>1</v>
-      </c>
+      <c r="H789" s="39"/>
       <c r="I789" s="9"/>
       <c r="J789" s="11"/>
-      <c r="K789" s="48">
-        <v>45190</v>
-      </c>
+      <c r="K789" s="48"/>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A790" s="40"/>
+      <c r="A790" s="40">
+        <v>45170</v>
+      </c>
       <c r="B790" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="C790" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C790" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D790" s="39">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E790" s="9"/>
       <c r="F790" s="20"/>
-      <c r="G790" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G790" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H790" s="39"/>
       <c r="I790" s="9"/>
       <c r="J790" s="11"/>
-      <c r="K790" s="48"/>
+      <c r="K790" s="48">
+        <v>45176</v>
+      </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A791" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A791" s="40"/>
       <c r="B791" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C791" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D791" s="39"/>
+        <v>85</v>
+      </c>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E791" s="9"/>
       <c r="F791" s="20"/>
-      <c r="G791" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H791" s="39">
-        <v>2</v>
-      </c>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
       <c r="I791" s="9"/>
       <c r="J791" s="11"/>
-      <c r="K791" s="20" t="s">
-        <v>647</v>
-      </c>
+      <c r="K791" s="48"/>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" s="40"/>
+      <c r="A792" s="40">
+        <v>45200</v>
+      </c>
       <c r="B792" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C792" s="13"/>
-      <c r="D792" s="39">
-        <v>0.15000000000000002</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C792" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D792" s="39"/>
       <c r="E792" s="9"/>
       <c r="F792" s="20"/>
-      <c r="G792" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H792" s="39"/>
+      <c r="G792" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H792" s="39">
+        <v>2</v>
+      </c>
       <c r="I792" s="9"/>
       <c r="J792" s="11"/>
-      <c r="K792" s="20"/>
+      <c r="K792" s="20" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A793" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A793" s="40"/>
       <c r="B793" s="20" t="s">
         <v>51</v>
       </c>
@@ -22763,36 +22793,40 @@
       <c r="I793" s="9"/>
       <c r="J793" s="11"/>
       <c r="K793" s="48">
-        <v>45278</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40"/>
       <c r="B794" s="20" t="s">
-        <v>650</v>
+        <v>51</v>
       </c>
       <c r="C794" s="13"/>
-      <c r="D794" s="39">
-        <v>0.13500000000000001</v>
-      </c>
+      <c r="D794" s="39"/>
       <c r="E794" s="9"/>
       <c r="F794" s="20"/>
       <c r="G794" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H794" s="39"/>
+      <c r="H794" s="39">
+        <v>1</v>
+      </c>
       <c r="I794" s="9"/>
       <c r="J794" s="11"/>
-      <c r="K794" s="48"/>
+      <c r="K794" s="48">
+        <v>45190</v>
+      </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A795" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="B795" s="20"/>
+      <c r="A795" s="40"/>
+      <c r="B795" s="20" t="s">
+        <v>651</v>
+      </c>
       <c r="C795" s="13"/>
-      <c r="D795" s="39"/>
+      <c r="D795" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E795" s="9"/>
       <c r="F795" s="20"/>
       <c r="G795" s="13" t="str">
@@ -22802,37 +22836,43 @@
       <c r="H795" s="39"/>
       <c r="I795" s="9"/>
       <c r="J795" s="11"/>
-      <c r="K795" s="20"/>
+      <c r="K795" s="48"/>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>45322</v>
+        <v>45231</v>
       </c>
       <c r="B796" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C796" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C796" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D796" s="39"/>
       <c r="E796" s="9"/>
       <c r="F796" s="20"/>
-      <c r="G796" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G796" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H796" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" s="9"/>
       <c r="J796" s="11"/>
       <c r="K796" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40"/>
-      <c r="B797" s="20"/>
+      <c r="B797" s="20" t="s">
+        <v>650</v>
+      </c>
       <c r="C797" s="13"/>
-      <c r="D797" s="39"/>
+      <c r="D797" s="39">
+        <v>0.15000000000000002</v>
+      </c>
       <c r="E797" s="9"/>
       <c r="F797" s="20"/>
       <c r="G797" s="13" t="str">
@@ -22845,8 +22885,12 @@
       <c r="K797" s="20"/>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A798" s="40"/>
-      <c r="B798" s="20"/>
+      <c r="A798" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B798" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C798" s="13"/>
       <c r="D798" s="39"/>
       <c r="E798" s="9"/>
@@ -22855,16 +22899,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H798" s="39"/>
+      <c r="H798" s="39">
+        <v>1</v>
+      </c>
       <c r="I798" s="9"/>
       <c r="J798" s="11"/>
-      <c r="K798" s="20"/>
+      <c r="K798" s="48">
+        <v>45278</v>
+      </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40"/>
-      <c r="B799" s="20"/>
+      <c r="B799" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="C799" s="13"/>
-      <c r="D799" s="39"/>
+      <c r="D799" s="39">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E799" s="9"/>
       <c r="F799" s="20"/>
       <c r="G799" s="13" t="str">
@@ -22874,10 +22926,12 @@
       <c r="H799" s="39"/>
       <c r="I799" s="9"/>
       <c r="J799" s="11"/>
-      <c r="K799" s="20"/>
+      <c r="K799" s="48"/>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A800" s="40"/>
+      <c r="A800" s="47" t="s">
+        <v>647</v>
+      </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
       <c r="D800" s="39"/>
@@ -22893,8 +22947,12 @@
       <c r="K800" s="20"/>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A801" s="40"/>
-      <c r="B801" s="20"/>
+      <c r="A801" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B801" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C801" s="13"/>
       <c r="D801" s="39"/>
       <c r="E801" s="9"/>
@@ -22903,10 +22961,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H801" s="39"/>
+      <c r="H801" s="39">
+        <v>3</v>
+      </c>
       <c r="I801" s="9"/>
       <c r="J801" s="11"/>
-      <c r="K801" s="20"/>
+      <c r="K801" s="20" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40"/>
@@ -23773,9 +23835,9 @@
       <c r="K855" s="20"/>
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A856" s="51"/>
+      <c r="A856" s="40"/>
       <c r="B856" s="20"/>
-      <c r="C856" s="41"/>
+      <c r="C856" s="13"/>
       <c r="D856" s="39"/>
       <c r="E856" s="9"/>
       <c r="F856" s="20"/>
@@ -23787,6 +23849,86 @@
       <c r="I856" s="9"/>
       <c r="J856" s="11"/>
       <c r="K856" s="20"/>
+    </row>
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A857" s="40"/>
+      <c r="B857" s="20"/>
+      <c r="C857" s="13"/>
+      <c r="D857" s="39"/>
+      <c r="E857" s="9"/>
+      <c r="F857" s="20"/>
+      <c r="G857" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H857" s="39"/>
+      <c r="I857" s="9"/>
+      <c r="J857" s="11"/>
+      <c r="K857" s="20"/>
+    </row>
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A858" s="40"/>
+      <c r="B858" s="20"/>
+      <c r="C858" s="13"/>
+      <c r="D858" s="39"/>
+      <c r="E858" s="9"/>
+      <c r="F858" s="20"/>
+      <c r="G858" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H858" s="39"/>
+      <c r="I858" s="9"/>
+      <c r="J858" s="11"/>
+      <c r="K858" s="20"/>
+    </row>
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A859" s="40"/>
+      <c r="B859" s="20"/>
+      <c r="C859" s="13"/>
+      <c r="D859" s="39"/>
+      <c r="E859" s="9"/>
+      <c r="F859" s="20"/>
+      <c r="G859" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H859" s="39"/>
+      <c r="I859" s="9"/>
+      <c r="J859" s="11"/>
+      <c r="K859" s="20"/>
+    </row>
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A860" s="40"/>
+      <c r="B860" s="20"/>
+      <c r="C860" s="13"/>
+      <c r="D860" s="39"/>
+      <c r="E860" s="9"/>
+      <c r="F860" s="20"/>
+      <c r="G860" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H860" s="39"/>
+      <c r="I860" s="9"/>
+      <c r="J860" s="11"/>
+      <c r="K860" s="20"/>
+    </row>
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A861" s="51"/>
+      <c r="B861" s="20"/>
+      <c r="C861" s="41"/>
+      <c r="D861" s="39"/>
+      <c r="E861" s="9"/>
+      <c r="F861" s="20"/>
+      <c r="G861" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H861" s="39"/>
+      <c r="I861" s="9"/>
+      <c r="J861" s="11"/>
+      <c r="K861" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23900,16 +24042,14 @@
       <c r="B3" s="11">
         <v>0.5</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11900000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="666">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2029,6 +2029,9 @@
   </si>
   <si>
     <t>2/3,9,17,20-23,27,28/2023</t>
+  </si>
+  <si>
+    <t>02/07,08/2024</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +2903,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2946,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3010,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3070,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3136,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3199,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3297,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3356,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3421,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3464,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3536,7 +3539,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3725,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3791,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,7 +3849,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3915,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3971,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4046,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4086,7 +4089,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4152,7 +4155,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4208,7 +4211,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4306,7 +4309,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4372,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,10 +4818,10 @@
   </sheetPr>
   <dimension ref="A2:K861"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A766" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A794" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="F776" sqref="F776"/>
+      <selection pane="bottomLeft" activeCell="E806" sqref="E806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,7 +4978,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.73399999999981</v>
+        <v>18.23399999999981</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4985,7 +4988,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>24.75</v>
+        <v>27.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -22891,13 +22894,15 @@
       <c r="B798" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C798" s="13"/>
+      <c r="C798" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D798" s="39"/>
       <c r="E798" s="9"/>
       <c r="F798" s="20"/>
-      <c r="G798" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G798" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H798" s="39">
         <v>1</v>
@@ -22953,13 +22958,15 @@
       <c r="B801" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C801" s="13"/>
+      <c r="C801" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D801" s="39"/>
       <c r="E801" s="9"/>
       <c r="F801" s="20"/>
-      <c r="G801" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G801" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H801" s="39">
         <v>3</v>
@@ -22971,10 +22978,16 @@
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A802" s="40"/>
-      <c r="B802" s="20"/>
+      <c r="A802" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B802" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C802" s="13"/>
-      <c r="D802" s="39"/>
+      <c r="D802" s="39">
+        <v>2</v>
+      </c>
       <c r="E802" s="9"/>
       <c r="F802" s="20"/>
       <c r="G802" s="13" t="str">
@@ -22984,10 +22997,14 @@
       <c r="H802" s="39"/>
       <c r="I802" s="9"/>
       <c r="J802" s="11"/>
-      <c r="K802" s="20"/>
+      <c r="K802" s="20" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A803" s="40"/>
+      <c r="A803" s="40">
+        <v>45382</v>
+      </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
       <c r="D803" s="39"/>
@@ -23003,7 +23020,9 @@
       <c r="K803" s="20"/>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A804" s="40"/>
+      <c r="A804" s="40">
+        <v>45412</v>
+      </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
       <c r="D804" s="39"/>
@@ -23019,7 +23038,9 @@
       <c r="K804" s="20"/>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A805" s="40"/>
+      <c r="A805" s="40">
+        <v>45443</v>
+      </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
       <c r="D805" s="39"/>
@@ -23035,7 +23056,9 @@
       <c r="K805" s="20"/>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A806" s="40"/>
+      <c r="A806" s="40">
+        <v>45473</v>
+      </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
       <c r="D806" s="39"/>
@@ -23051,7 +23074,9 @@
       <c r="K806" s="20"/>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A807" s="40"/>
+      <c r="A807" s="40">
+        <v>45504</v>
+      </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
       <c r="D807" s="39"/>
@@ -23067,7 +23092,9 @@
       <c r="K807" s="20"/>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A808" s="40"/>
+      <c r="A808" s="40">
+        <v>45535</v>
+      </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
       <c r="D808" s="39"/>
@@ -23083,7 +23110,9 @@
       <c r="K808" s="20"/>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A809" s="40"/>
+      <c r="A809" s="40">
+        <v>45565</v>
+      </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
       <c r="D809" s="39"/>
@@ -23099,7 +23128,9 @@
       <c r="K809" s="20"/>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A810" s="40"/>
+      <c r="A810" s="40">
+        <v>45596</v>
+      </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
       <c r="D810" s="39"/>
@@ -23115,7 +23146,9 @@
       <c r="K810" s="20"/>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A811" s="40"/>
+      <c r="A811" s="40">
+        <v>45626</v>
+      </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
       <c r="D811" s="39"/>
@@ -23131,7 +23164,9 @@
       <c r="K811" s="20"/>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A812" s="40"/>
+      <c r="A812" s="40">
+        <v>45657</v>
+      </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
       <c r="D812" s="39"/>

--- a/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
+++ b/REGULAR/CEO/ARCULLO, MELISSA A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="667">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2032,6 +2032,9 @@
   </si>
   <si>
     <t>02/07,08/2024</t>
+  </si>
+  <si>
+    <t>DOMESTIC 02/12/2024</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +2906,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2949,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3013,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3073,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3139,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3202,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3300,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3359,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3424,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3467,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3542,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3728,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,7 +3794,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3849,7 +3852,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +3918,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3971,7 +3974,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +4049,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4089,7 +4092,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4158,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,7 +4214,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4309,7 +4312,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4375,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4441,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K861" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K862" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4816,12 +4819,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K861"/>
+  <dimension ref="A2:K862"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4245" topLeftCell="A794" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="M6:O8"/>
-      <selection pane="bottomLeft" activeCell="E806" sqref="E806"/>
+      <selection pane="bottomLeft" activeCell="B803" sqref="B803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23002,10 +23005,10 @@
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A803" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B803" s="20"/>
+      <c r="A803" s="40"/>
+      <c r="B803" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="C803" s="13"/>
       <c r="D803" s="39"/>
       <c r="E803" s="9"/>
@@ -23017,11 +23020,13 @@
       <c r="H803" s="39"/>
       <c r="I803" s="9"/>
       <c r="J803" s="11"/>
-      <c r="K803" s="20"/>
+      <c r="K803" s="48" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -23039,7 +23044,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -23057,7 +23062,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -23075,7 +23080,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -23093,7 +23098,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -23111,7 +23116,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -23129,7 +23134,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -23147,7 +23152,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -23165,7 +23170,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -23182,7 +23187,9 @@
       <c r="K812" s="20"/>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A813" s="40"/>
+      <c r="A813" s="40">
+        <v>45657</v>
+      </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
       <c r="D813" s="39"/>
@@ -23950,9 +23957,9 @@
       <c r="K860" s="20"/>
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A861" s="51"/>
+      <c r="A861" s="40"/>
       <c r="B861" s="20"/>
-      <c r="C861" s="41"/>
+      <c r="C861" s="13"/>
       <c r="D861" s="39"/>
       <c r="E861" s="9"/>
       <c r="F861" s="20"/>
@@ -23964,6 +23971,22 @@
       <c r="I861" s="9"/>
       <c r="J861" s="11"/>
       <c r="K861" s="20"/>
+    </row>
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A862" s="51"/>
+      <c r="B862" s="20"/>
+      <c r="C862" s="41"/>
+      <c r="D862" s="39"/>
+      <c r="E862" s="9"/>
+      <c r="F862" s="20"/>
+      <c r="G862" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H862" s="39"/>
+      <c r="I862" s="9"/>
+      <c r="J862" s="11"/>
+      <c r="K862" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
